--- a/biology/Botanique/GIP_Ecofor/GIP_Ecofor.xlsx
+++ b/biology/Botanique/GIP_Ecofor/GIP_Ecofor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le GIP Ecofor est un Groupement d'Intérêt Public créé en 1993 pour dix ans et renouvelé depuis en 2003 et 2013. Il compte actuellement 12 membres, parmi les principaux organismes forestiers français (INRAE, ONF, CNRS, Cirad, IRD, AgroParisTech, CNPF, FCBA, IGN,  MNHN) et l'État représenté par les deux ministères chargés de l’agriculture et de la forêt d’une part, de la transition écologique d’autre part. Le GIP Ecofor est un GIP de type « Recherche », placé sous la tutelle du Ministère de l’Enseignement supérieur et de la Recherche. 
 Ses activités principales portent sur l'étude du fonctionnement et de la dynamique des écosystèmes, ainsi que sur la gestion durable des forêts, le tout en milieux tempérés et tropicaux.
@@ -545,7 +559,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque membre d'Ecofor siège à l'Assemblée générale, qui se réunit deux fois par an pour décider les orientations institutionnelles et scientifiques du GIP ainsi que de leur mise on œuvre annuelle.
 Le conseil scientifique propose des pistes d'action, contribue le cas échéant à leur développement et en réalise une évaluation. Il peut déléguer une partie de ses missions à des conseils plus spécialisés. 
@@ -578,7 +594,9 @@
           <t>Projets menés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ci-dessous, une sélection des projets menés par le GIP Ecofor ou auxquels il participe, en cours ou achevés, classés selon les quatre thématiques de travail. 
 Thème 1: Biodiversité et fonctionnement des écosystèmes forestiers
@@ -636,7 +654,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>www.gip-ecofor.org</t>
         </is>
